--- a/onlyIf31/onlyIf31.xlsx
+++ b/onlyIf31/onlyIf31.xlsx
@@ -2585,7 +2585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2593,29 +2593,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="13.0"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -3113,10 +3120,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3348,7 +3355,7 @@
     <col customWidth="1" min="16" max="16" width="2.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3366,7 +3373,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -3388,7 +3395,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -3434,7 +3441,7 @@
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -3480,7 +3487,7 @@
       </c>
       <c r="P4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="14">
         <v>1.0</v>
@@ -3526,7 +3533,7 @@
       </c>
       <c r="P5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="19">
         <v>2.0</v>
@@ -3572,7 +3579,7 @@
       </c>
       <c r="P6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="19">
         <v>3.0</v>
@@ -3618,7 +3625,7 @@
       </c>
       <c r="P7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="19">
         <v>4.0</v>
@@ -3664,7 +3671,7 @@
       </c>
       <c r="P8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="19">
         <v>5.0</v>
@@ -3710,7 +3717,7 @@
       </c>
       <c r="P9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="19">
         <v>6.0</v>
@@ -3756,7 +3763,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19">
         <v>7.0</v>
@@ -3802,7 +3809,7 @@
       </c>
       <c r="P11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="19">
         <v>8.0</v>
@@ -3848,7 +3855,7 @@
       </c>
       <c r="P12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="19">
         <v>9.0</v>
@@ -3894,7 +3901,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="19">
         <v>10.0</v>
@@ -3940,7 +3947,7 @@
       </c>
       <c r="P14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="19">
         <v>11.0</v>
@@ -3986,7 +3993,7 @@
       </c>
       <c r="P15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="19">
         <v>12.0</v>
@@ -4032,7 +4039,7 @@
       </c>
       <c r="P16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="19">
         <v>13.0</v>
@@ -4078,7 +4085,7 @@
       </c>
       <c r="P17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="19">
         <v>14.0</v>
@@ -4124,7 +4131,7 @@
       </c>
       <c r="P18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="19">
         <v>15.0</v>
@@ -4170,7 +4177,7 @@
       </c>
       <c r="P19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="19">
         <v>16.0</v>
@@ -4216,7 +4223,7 @@
       </c>
       <c r="P20" s="8"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="19">
         <v>17.0</v>
@@ -4262,7 +4269,7 @@
       </c>
       <c r="P21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="19">
         <v>18.0</v>
@@ -4308,7 +4315,7 @@
       </c>
       <c r="P22" s="8"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="19">
         <v>19.0</v>
@@ -4354,7 +4361,7 @@
       </c>
       <c r="P23" s="8"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="19">
         <v>20.0</v>
@@ -4400,7 +4407,7 @@
       </c>
       <c r="P24" s="8"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="19">
         <v>21.0</v>
@@ -4446,7 +4453,7 @@
       </c>
       <c r="P25" s="8"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="19">
         <v>22.0</v>
@@ -4492,7 +4499,7 @@
       </c>
       <c r="P26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="19">
         <v>23.0</v>
@@ -4538,7 +4545,7 @@
       </c>
       <c r="P27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="19">
         <v>24.0</v>
@@ -4584,7 +4591,7 @@
       </c>
       <c r="P28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="19">
         <v>25.0</v>
@@ -4630,7 +4637,7 @@
       </c>
       <c r="P29" s="8"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="24">
         <v>26.0</v>
@@ -4676,7 +4683,7 @@
       </c>
       <c r="P30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="29" t="s">
         <v>335</v>
@@ -4722,7 +4729,7 @@
       </c>
       <c r="P31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="34" t="s">
         <v>349</v>
@@ -4768,7 +4775,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="37"/>
       <c r="C33" s="38"/>
@@ -4814,7 +4821,7 @@
     <col customWidth="1" min="16" max="16" width="2.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4832,7 +4839,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>356</v>
@@ -4854,7 +4861,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -4900,7 +4907,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>358</v>
@@ -4946,7 +4953,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="14">
         <v>1.0</v>
@@ -4992,7 +4999,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="19">
         <v>2.0</v>
@@ -5038,7 +5045,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="19">
         <v>3.0</v>
@@ -5084,7 +5091,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="19">
         <v>4.0</v>
@@ -5130,7 +5137,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="19">
         <v>5.0</v>
@@ -5176,7 +5183,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="19">
         <v>6.0</v>
@@ -5222,7 +5229,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19">
         <v>7.0</v>
@@ -5268,7 +5275,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="19">
         <v>8.0</v>
@@ -5314,7 +5321,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="19">
         <v>9.0</v>
@@ -5360,7 +5367,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="19">
         <v>10.0</v>
@@ -5406,7 +5413,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="19">
         <v>11.0</v>
@@ -5452,7 +5459,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="19">
         <v>12.0</v>
@@ -5498,7 +5505,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="19">
         <v>13.0</v>
@@ -5544,7 +5551,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="19">
         <v>14.0</v>
@@ -5590,7 +5597,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="19">
         <v>15.0</v>
@@ -5636,7 +5643,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="19">
         <v>16.0</v>
@@ -5682,7 +5689,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="19">
         <v>17.0</v>
@@ -5728,7 +5735,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="19">
         <v>18.0</v>
@@ -5774,7 +5781,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="19">
         <v>19.0</v>
@@ -5820,7 +5827,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="19">
         <v>20.0</v>
@@ -5866,7 +5873,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="19">
         <v>21.0</v>
@@ -5912,7 +5919,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="19">
         <v>22.0</v>
@@ -5958,7 +5965,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="19">
         <v>23.0</v>
@@ -6004,7 +6011,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="19">
         <v>24.0</v>
@@ -6050,7 +6057,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="19">
         <v>25.0</v>
@@ -6096,7 +6103,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="24">
         <v>26.0</v>
@@ -6142,7 +6149,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="29" t="s">
         <v>683</v>
@@ -6188,7 +6195,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="34" t="s">
         <v>349</v>
@@ -6234,7 +6241,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="37"/>
       <c r="C33" s="38"/>
@@ -7104,7 +7111,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToWidth="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/onlyIf31/onlyIf31.xlsx
+++ b/onlyIf31/onlyIf31.xlsx
@@ -3002,7 +3002,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3013,104 +3013,103 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -3118,8 +3117,12 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3439,1346 +3442,1346 @@
       <c r="O3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1.0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>1.0</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>2.0</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>2.0</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>3.0</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>3.0</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="8"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>4.0</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>4.0</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="8"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>5.0</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>5.0</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="8"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>6.0</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <v>6.0</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="8"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>7.0</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <v>7.0</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>8.0</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>8.0</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>9.0</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>9.0</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="P13" s="8"/>
+      <c r="P13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>10.0</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>10.0</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="P14" s="8"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>11.0</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>11.0</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>12.0</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>12.0</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>13.0</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>13.0</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="P17" s="8"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>14.0</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <v>14.0</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>15.0</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>15.0</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="P19" s="8"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>16.0</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>16.0</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="P20" s="8"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>17.0</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <v>17.0</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="P21" s="8"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>18.0</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>18.0</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="P22" s="8"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>19.0</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <v>19.0</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="P23" s="8"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>20.0</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>20.0</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="P24" s="8"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>21.0</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>21.0</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="P25" s="8"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>22.0</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <v>22.0</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="P26" s="8"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>23.0</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>23.0</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="P27" s="8"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>24.0</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>24.0</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="P28" s="8"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>25.0</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>25.0</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="N29" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="P29" s="8"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>26.0</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="23">
         <v>26.0</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="O30" s="28" t="s">
+      <c r="O30" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="P30" s="8"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="O31" s="33" t="s">
+      <c r="O31" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="P31" s="8"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="L32" s="35" t="s">
+      <c r="L32" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="M32" s="35" t="s">
+      <c r="M32" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="N32" s="35" t="s">
+      <c r="N32" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="35" t="s">
         <v>355</v>
       </c>
       <c r="P32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -4909,2204 +4912,2207 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>371</v>
       </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1.0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>1.0</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="17" t="s">
         <v>383</v>
       </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>2.0</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>2.0</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="22" t="s">
         <v>395</v>
       </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>3.0</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>3.0</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="22" t="s">
         <v>407</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>4.0</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>4.0</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="22" t="s">
         <v>419</v>
       </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>5.0</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>5.0</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="22" t="s">
         <v>431</v>
       </c>
       <c r="P9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>6.0</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <v>6.0</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="22" t="s">
         <v>443</v>
       </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>7.0</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <v>7.0</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="22" t="s">
         <v>455</v>
       </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>8.0</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>8.0</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="22" t="s">
         <v>467</v>
       </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>9.0</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>9.0</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="22" t="s">
         <v>479</v>
       </c>
       <c r="P13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>10.0</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>10.0</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="22" t="s">
         <v>491</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>11.0</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>11.0</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="22" t="s">
         <v>503</v>
       </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>12.0</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>12.0</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="22" t="s">
         <v>515</v>
       </c>
       <c r="P16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>13.0</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>13.0</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="22" t="s">
         <v>527</v>
       </c>
       <c r="P17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>14.0</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <v>14.0</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="22" t="s">
         <v>539</v>
       </c>
       <c r="P18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>15.0</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>15.0</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="22" t="s">
         <v>550</v>
       </c>
       <c r="P19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>16.0</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>16.0</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="22" t="s">
         <v>562</v>
       </c>
       <c r="P20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>17.0</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>568</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <v>17.0</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="22" t="s">
         <v>574</v>
       </c>
       <c r="P21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>18.0</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>18.0</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="22" t="s">
         <v>586</v>
       </c>
       <c r="P22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>19.0</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <v>19.0</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="22" t="s">
         <v>598</v>
       </c>
       <c r="P23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>20.0</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>20.0</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="22" t="s">
         <v>610</v>
       </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>21.0</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>21.0</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="22" t="s">
         <v>622</v>
       </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>22.0</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <v>22.0</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="22" t="s">
         <v>634</v>
       </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>23.0</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>23.0</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="22" t="s">
         <v>646</v>
       </c>
       <c r="P27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>24.0</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>24.0</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="21" t="s">
         <v>657</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="22" t="s">
         <v>658</v>
       </c>
       <c r="P28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>25.0</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>25.0</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="21" t="s">
         <v>668</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="N29" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" s="22" t="s">
         <v>670</v>
       </c>
       <c r="P29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>26.0</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>676</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="23">
         <v>26.0</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="O30" s="28" t="s">
+      <c r="O30" s="27" t="s">
         <v>682</v>
       </c>
       <c r="P30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>683</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>684</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>688</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="29" t="s">
         <v>691</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="31" t="s">
         <v>693</v>
       </c>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="31" t="s">
         <v>694</v>
       </c>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="O31" s="33" t="s">
+      <c r="O31" s="32" t="s">
         <v>696</v>
       </c>
       <c r="P31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="L32" s="35" t="s">
+      <c r="L32" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="M32" s="35" t="s">
+      <c r="M32" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="N32" s="35" t="s">
+      <c r="N32" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="O32" s="36" t="s">
+      <c r="O32" s="35" t="s">
         <v>355</v>
       </c>
       <c r="P32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="39"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40" t="s">
+      <c r="F35" s="39"/>
+      <c r="G35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40" t="s">
+      <c r="H35" s="39"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40" t="s">
+      <c r="M35" s="39"/>
+      <c r="N35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="40"/>
-      <c r="P35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="39" t="s">
         <v>567</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40" t="s">
+      <c r="I36" s="38"/>
+      <c r="J36" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="39" t="s">
         <v>701</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40">
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39">
         <v>299.0</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40" t="s">
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39">
         <v>1.0</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="40">
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39">
         <v>2699.0</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40">
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39">
         <v>1.0</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
     </row>
     <row r="39">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39">
         <v>2.0</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40">
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39">
         <v>3265.0</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40">
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39">
         <v>2.0</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39">
         <v>3.0</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40">
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39">
         <v>184.0</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40">
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39">
         <v>3.0</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39">
         <v>4.0</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40">
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39">
         <v>155.0</v>
       </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40">
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39">
         <v>4.0</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39">
         <v>5.0</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40">
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39">
         <v>362.0</v>
       </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40">
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="39">
         <v>5.0</v>
       </c>
-      <c r="K42" s="40" t="s">
+      <c r="K42" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39">
         <v>6.0</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40">
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39">
         <v>135.0</v>
       </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40">
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39">
         <v>6.0</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39">
         <v>7.0</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="39" t="s">
         <v>708</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40">
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39">
         <v>207.0</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="39">
         <v>7007.0</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40">
+      <c r="I44" s="38"/>
+      <c r="J44" s="39">
         <v>7.0</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="39"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39">
         <v>8.0</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40">
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39">
         <v>247.0</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40">
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="39">
         <v>8.0</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
     </row>
     <row r="46">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39">
         <v>9.0</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40">
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39">
         <v>257.0</v>
       </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40">
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="39">
         <v>9.0</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
     </row>
     <row r="47">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39">
         <v>10.0</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40">
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39">
         <v>469.0</v>
       </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40">
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39">
         <v>10.0</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39">
         <v>11.0</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="39" t="s">
         <v>712</v>
       </c>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40">
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39">
         <v>49.0</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40">
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39">
         <v>11.0</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39">
         <v>12.0</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40">
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39">
         <v>707.0</v>
       </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40">
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39">
         <v>12.0</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39">
         <v>13.0</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="39" t="s">
         <v>714</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40">
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="39">
         <v>13.0</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="K50" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
     </row>
     <row r="51">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39">
         <v>14.0</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40">
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="39">
         <v>14.0</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K51" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39">
         <v>15.0</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40">
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="39">
         <v>15.0</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
     </row>
     <row r="53">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39">
         <v>16.0</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40">
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="39">
         <v>16.0</v>
       </c>
-      <c r="K53" s="40" t="s">
+      <c r="K53" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
     </row>
     <row r="54">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="39">
         <v>17.0</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="39" t="s">
         <v>717</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40">
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="39">
         <v>17.0</v>
       </c>
-      <c r="K54" s="40" t="s">
+      <c r="K54" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
     </row>
     <row r="55">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="39">
         <v>18.0</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="39" t="s">
         <v>718</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40">
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="39">
         <v>18.0</v>
       </c>
-      <c r="K55" s="40" t="s">
+      <c r="K55" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
     </row>
     <row r="56">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39">
         <v>19.0</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40">
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="39">
         <v>19.0</v>
       </c>
-      <c r="K56" s="40" t="s">
+      <c r="K56" s="39" t="s">
         <v>593</v>
       </c>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
     </row>
     <row r="57">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39">
         <v>20.0</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="39" t="s">
         <v>720</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="40">
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="39">
         <v>20.0</v>
       </c>
-      <c r="K57" s="40" t="s">
+      <c r="K57" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
     </row>
     <row r="58">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="39">
         <v>21.0</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="40">
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39">
         <v>21.0</v>
       </c>
-      <c r="K58" s="40" t="s">
+      <c r="K58" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
     </row>
     <row r="59">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39">
         <v>22.0</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="39" t="s">
         <v>722</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="40">
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39">
         <v>22.0</v>
       </c>
-      <c r="K59" s="40" t="s">
+      <c r="K59" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
     </row>
     <row r="60">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39">
         <v>23.0</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="39" t="s">
         <v>723</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="40">
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="39">
         <v>23.0</v>
       </c>
-      <c r="K60" s="40" t="s">
+      <c r="K60" s="39" t="s">
         <v>641</v>
       </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
     </row>
     <row r="61">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="39">
         <v>24.0</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="39" t="s">
         <v>724</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40">
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39">
         <v>24.0</v>
       </c>
-      <c r="K61" s="40" t="s">
+      <c r="K61" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
     </row>
     <row r="62">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39">
         <v>25.0</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="39" t="s">
         <v>725</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="40">
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="39">
         <v>25.0</v>
       </c>
-      <c r="K62" s="40" t="s">
+      <c r="K62" s="39" t="s">
         <v>665</v>
       </c>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
     <row r="63">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="39">
         <v>26.0</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="39" t="s">
         <v>726</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40">
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="39">
         <v>26.0</v>
       </c>
-      <c r="K63" s="40" t="s">
+      <c r="K63" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
     </row>
     <row r="64">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="39" t="s">
         <v>727</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="39" t="s">
         <v>728</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40" t="s">
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="K64" s="40" t="s">
+      <c r="K64" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/onlyIf31/onlyIf31.xlsx
+++ b/onlyIf31/onlyIf31.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="up10" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="down20" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="1. up10" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="26. down20" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -2636,8 +2636,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
   </fills>
@@ -3352,9 +3352,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="2.75"/>
     <col customWidth="1" min="2" max="2" width="11.75"/>
-    <col customWidth="1" min="3" max="8" width="12.63"/>
+    <col customWidth="1" min="3" max="8" width="16.75"/>
     <col customWidth="1" min="9" max="9" width="11.75"/>
-    <col customWidth="1" min="10" max="15" width="12.63"/>
+    <col customWidth="1" min="10" max="15" width="16.75"/>
     <col customWidth="1" min="16" max="16" width="2.75"/>
   </cols>
   <sheetData>
@@ -4817,9 +4817,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="2.75"/>
-    <col customWidth="1" min="2" max="2" width="10.75"/>
+    <col customWidth="1" min="2" max="2" width="11.75"/>
     <col customWidth="1" min="3" max="8" width="16.75"/>
-    <col customWidth="1" min="9" max="9" width="10.75"/>
+    <col customWidth="1" min="9" max="9" width="11.75"/>
     <col customWidth="1" min="10" max="15" width="16.75"/>
     <col customWidth="1" min="16" max="16" width="2.75"/>
   </cols>
